--- a/task_plan.xlsx
+++ b/task_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo projects\keywordio assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC7012-34E8-4520-B743-321260DC47E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F0F85-18B2-4712-93F3-E127B89D9700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
